--- a/examples/example1/data.xlsx
+++ b/examples/example1/data.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francescab\projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sintef-my.sharepoint.com/personal/treesa_joseph_sintef_no/Documents/Documents/GitHub/EMMC-ASBL/oteapi-services/examples/example1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D95C7A2-FB7F-431B-BB19-3A7C7D9878FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9D95C7A2-FB7F-431B-BB19-3A7C7D9878FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5D98979-1FDE-46D1-B046-94798FC5A1B9}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7550" activeTab="1" xr2:uid="{8D46CEEC-F880-4619-BCFC-C9E1DA5CF1EA}"/>
+    <workbookView xWindow="590" yWindow="470" windowWidth="19470" windowHeight="8020" xr2:uid="{8D46CEEC-F880-4619-BCFC-C9E1DA5CF1EA}"/>
   </bookViews>
   <sheets>
     <sheet name="PhysicalParameters" sheetId="1" r:id="rId1"/>
-    <sheet name="SimulationParameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,41 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>pressure</t>
   </si>
   <si>
-    <t>number_of_steps</t>
-  </si>
-  <si>
-    <t>equilibration_steps</t>
-  </si>
-  <si>
-    <t>production_steps</t>
-  </si>
-  <si>
-    <t>timestep</t>
-  </si>
-  <si>
-    <t>gridsize</t>
-  </si>
-  <si>
-    <t>gridspacing</t>
-  </si>
-  <si>
     <t>temperature</t>
-  </si>
-  <si>
-    <t>s_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -99,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,7 +106,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -415,17 +402,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BD1ED2-B976-482A-B841-52C8790FE513}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -455,119 +442,11 @@
         <v>600</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF77F45B-30B5-4EEE-9C8B-4CEA04274722}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>50</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>50000</v>
-      </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>50000</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>50000</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>6.4</v>
-      </c>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>